--- a/testData/audit_mount_test_data.xlsx
+++ b/testData/audit_mount_test_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>远端IP不能为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>远端路径为空</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -121,14 +117,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>远端IP不可达</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机地址可达才能进行挂载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 远端路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,10 +149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>添加成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,15 +165,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.11.212</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/var/share</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> test_F06_S15_T22_add_002</t>
+  </si>
+  <si>
+    <t>/mnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远端地址不能为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -696,10 +684,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -727,19 +715,19 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
@@ -749,7 +737,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -761,10 +749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -794,16 +782,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>2</v>
@@ -814,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -825,15 +813,15 @@
       <c r="G2" s="6"/>
       <c r="H2" s="9"/>
       <c r="I2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
@@ -844,15 +832,15 @@
       <c r="G3" s="6"/>
       <c r="H3" s="9"/>
       <c r="I3" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
@@ -863,34 +851,34 @@
       <c r="G4" s="6"/>
       <c r="H4" s="9"/>
       <c r="I4" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="9"/>
       <c r="I5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -901,28 +889,7 @@
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
